--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0B6E4D8-C5C5-4313-B78F-40EB04B53227}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{469A7B4C-AF0C-4454-83EC-FB9949F03DA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of May 30, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of May 30, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of June 1, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 1, 2020)</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -565,7 +563,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8">
         <v>65</v>
@@ -579,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="D4" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E4" s="8">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -596,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D5" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -613,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="D6" s="8">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E6" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -633,13 +631,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="8">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D7" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -647,16 +645,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D8" s="8">
         <v>26</v>
       </c>
       <c r="E8" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -667,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D9" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
         <v>18</v>
@@ -699,19 +697,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>3802</v>
+        <v>3886</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,7 +744,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -836,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8">
         <v>167</v>
@@ -856,10 +854,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8">
         <v>34</v>
@@ -922,15 +920,15 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C3:C10)</f>
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D3:D10)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1">
         <f>SUM(E3:E10)</f>

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{469A7B4C-AF0C-4454-83EC-FB9949F03DA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A805EB4-062B-43C3-861A-E16FEA9E8FC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Nursing Homes" sheetId="1" r:id="rId1"/>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 1, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 1, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of June 7, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 7, 2020)</t>
   </si>
 </sst>
 </file>
@@ -560,16 +560,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D3" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8">
-        <v>99</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -577,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8">
-        <v>1247</v>
+        <v>1388</v>
       </c>
       <c r="D4" s="8">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E4" s="8">
-        <v>411</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8">
-        <v>402</v>
+        <v>503</v>
       </c>
       <c r="D5" s="8">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E5" s="8">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -611,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8">
-        <v>915</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="8">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E6" s="8">
-        <v>275</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -628,16 +628,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D7" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E7" s="8">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -645,16 +645,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="D8" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -662,16 +662,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D9" s="8">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,16 +679,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -697,20 +697,23 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>3886</v>
+        <v>4332</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1181</v>
-      </c>
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -744,7 +747,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -783,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8">
         <v>38</v>
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -800,16 +803,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>17</v>
@@ -834,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D6" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -851,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8">
         <v>34</v>
@@ -920,19 +923,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C3:C10)</f>
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D3:D10)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
         <f>SUM(E3:E10)</f>
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A805EB4-062B-43C3-861A-E16FEA9E8FC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0DB0E7C-3639-4EE2-9735-811986FE973B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Nursing Homes" sheetId="1" r:id="rId1"/>
     <sheet name="Assisted Living Facilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 7, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 7, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of June 10, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 10, 2020)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +563,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="8">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D3" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="8">
         <v>153</v>
@@ -577,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8">
-        <v>1388</v>
+        <v>1405</v>
       </c>
       <c r="D4" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E4" s="8">
-        <v>532</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D5" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" s="8">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -611,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C6" s="8">
-        <v>1027</v>
+        <v>1070</v>
       </c>
       <c r="D6" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E6" s="8">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -628,16 +628,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="D7" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" s="8">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -645,16 +645,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D8" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -662,16 +662,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D9" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,16 +679,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D10" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -697,19 +697,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>4332</v>
+        <v>4484</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1499</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -803,13 +803,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D4" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8">
         <v>74</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>17</v>
@@ -837,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8">
         <v>34</v>
       </c>
       <c r="E6" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -854,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8">
         <v>98</v>
       </c>
       <c r="D7" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
         <v>34</v>
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -923,19 +923,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(C3:C10)</f>
-        <v>507</v>
+        <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
+        <v>545</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D3:D10)</f>
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E3:E10)</f>
-        <v>229</v>
+        <f t="shared" si="0"/>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0DB0E7C-3639-4EE2-9735-811986FE973B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{355990C6-5DD9-49DD-9C43-0B9F31CD7E6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 10, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 10, 2020)</t>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 18, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Nursing Homes (as of June 18, 2020)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -535,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -560,16 +562,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D3" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="8">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -577,16 +579,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C4" s="8">
-        <v>1405</v>
+        <v>1494</v>
       </c>
       <c r="D4" s="8">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E4" s="8">
-        <v>607</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="D5" s="8">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E5" s="8">
-        <v>175</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -611,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C6" s="8">
-        <v>1070</v>
+        <v>1300</v>
       </c>
       <c r="D6" s="8">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E6" s="8">
-        <v>347</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -628,16 +630,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8">
-        <v>514</v>
+        <v>597</v>
       </c>
       <c r="D7" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8">
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -645,16 +647,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="D8" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -662,16 +664,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D9" s="8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,16 +681,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D10" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -697,23 +699,25 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>4484</v>
+        <f>SUM(C3:C10)</f>
+        <v>5075</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>757</v>
+        <f>SUM(D3:D10)</f>
+        <v>835</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>1739</v>
+        <f>SUM(E3:E10)</f>
+        <v>2290</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -746,9 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -761,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="131" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -795,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -803,16 +805,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>17</v>
@@ -837,16 +839,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C6" s="8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D6" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -854,16 +856,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -871,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
@@ -888,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
@@ -923,20 +925,23 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>545</v>
+        <f>SUM(C3:C10)</f>
+        <v>557</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>121</v>
+        <f>SUM(D3:D10)</f>
+        <v>125</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
+        <f>SUM(E3:E10)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{355990C6-5DD9-49DD-9C43-0B9F31CD7E6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81156244-85B3-43E7-8099-0C9072DC36F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20118" windowHeight="4620" activeTab="1" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Nursing Homes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>4/5N</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Recoveries are determined by daily facility reports.</t>
   </si>
   <si>
-    <t>The above table contains data on nursing homes with one or more confirmed COVID-19 cases.</t>
-  </si>
-  <si>
     <t>The above table contains data on assisted living facilities with one or more confirmed COVID-19 cases.</t>
   </si>
   <si>
@@ -82,10 +79,16 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 18, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 18, 2020)</t>
+    <t>The above table contains cumulative data on nursing homes with one or more confirmed COVID-19 cases.</t>
+  </si>
+  <si>
+    <t>The above able does not show the number of new/active cases.</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Nursing Homes (as of July 15, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of July 15, 2020)</t>
   </si>
 </sst>
 </file>
@@ -520,32 +523,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.078125" style="2"/>
+    <col min="2" max="2" width="11.27734375" customWidth="1"/>
+    <col min="3" max="3" width="10.87890625" customWidth="1"/>
     <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.51953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="132.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -557,188 +560,192 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8">
-        <v>311</v>
+        <v>462</v>
       </c>
       <c r="D3" s="8">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E3" s="8">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C4" s="8">
-        <v>1494</v>
+        <v>2303</v>
       </c>
       <c r="D4" s="8">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="E4" s="8">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8">
-        <v>593</v>
+        <v>821</v>
       </c>
       <c r="D5" s="8">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E5" s="8">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8">
-        <v>1300</v>
+        <v>2550</v>
       </c>
       <c r="D6" s="8">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="E6" s="8">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8">
-        <v>597</v>
+        <v>898</v>
       </c>
       <c r="D7" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E7" s="8">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8">
-        <v>332</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="8">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E8" s="8">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
-        <v>267</v>
+        <v>666</v>
       </c>
       <c r="D9" s="8">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E9" s="8">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8">
-        <v>181</v>
+        <v>752</v>
       </c>
       <c r="D10" s="8">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E10" s="8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM(B3:B10)</f>
-        <v>579</v>
+        <v>851</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(C3:C10)</f>
-        <v>5075</v>
+        <v>9609</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D3:D10)</f>
-        <v>835</v>
+        <v>1236</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E3:E10)</f>
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,30 +755,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.078125" style="2"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="131" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -783,49 +792,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8">
-        <v>200</v>
+        <v>388</v>
       </c>
       <c r="D4" s="8">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
@@ -834,135 +843,137 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8">
-        <v>184</v>
+        <v>399</v>
       </c>
       <c r="D6" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="D7" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="8">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
       <c r="E10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM(B3:B10)</f>
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(C3:C10)</f>
-        <v>557</v>
+        <v>1190</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D3:D10)</f>
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E3:E10)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81156244-85B3-43E7-8099-0C9072DC36F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7539C53-602C-40D6-A230-6C50D9264DDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20118" windowHeight="4620" activeTab="1" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Nursing Homes" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t>The above able does not show the number of new/active cases.</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of July 15, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of July 15, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of July 20, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of July 20, 2020)</t>
   </si>
 </sst>
 </file>
@@ -525,25 +525,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.078125" style="2"/>
-    <col min="2" max="2" width="11.27734375" customWidth="1"/>
-    <col min="3" max="3" width="10.87890625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
     <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.51953125" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="132.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -560,15 +560,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="D3" s="8">
         <v>81</v>
@@ -577,92 +577,92 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C4" s="8">
-        <v>2303</v>
+        <v>2417</v>
       </c>
       <c r="D4" s="8">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E4" s="8">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8">
-        <v>821</v>
+        <v>982</v>
       </c>
       <c r="D5" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E5" s="8">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C6" s="8">
-        <v>2550</v>
+        <v>3027</v>
       </c>
       <c r="D6" s="8">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="E6" s="8">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8">
-        <v>898</v>
+        <v>1149</v>
       </c>
       <c r="D7" s="8">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E7" s="8">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C8" s="8">
-        <v>1157</v>
+        <v>1552</v>
       </c>
       <c r="D8" s="8">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E8" s="8">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,77 +670,81 @@
         <v>44</v>
       </c>
       <c r="C9" s="8">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="D9" s="8">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E9" s="8">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8">
-        <v>752</v>
+        <v>933</v>
       </c>
       <c r="D10" s="8">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="E10" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>851</v>
+        <f>SUM(B3:B10)</f>
+        <v>878</v>
       </c>
       <c r="C11" s="1">
-        <v>9609</v>
+        <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
+        <v>11303</v>
       </c>
       <c r="D11" s="1">
-        <v>1236</v>
+        <f t="shared" si="0"/>
+        <v>1422</v>
       </c>
       <c r="E11" s="1">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -757,25 +761,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.078125" style="2"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.6796875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -792,49 +796,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D4" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E4" s="8">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
@@ -843,83 +847,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C6" s="8">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="D6" s="8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D7" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -928,49 +932,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>396</v>
+        <f>SUM(B3:B10)</f>
+        <v>437</v>
       </c>
       <c r="C11" s="1">
-        <v>1190</v>
+        <f>SUM(C3:C10)</f>
+        <v>1416</v>
       </c>
       <c r="D11" s="1">
-        <v>179</v>
+        <f>SUM(D3:D10)</f>
+        <v>212</v>
       </c>
       <c r="E11" s="1">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <f>SUM(E3:E10)</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>

--- a/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
+++ b/data/COVID-19OutbreaksinLong-termCareFacilities.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7539C53-602C-40D6-A230-6C50D9264DDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45785E42-18AA-4131-B40F-9C797A579DF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20123" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Nursing Homes" sheetId="1" r:id="rId1"/>
     <sheet name="Assisted Living Facilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,10 +85,10 @@
     <t>The above able does not show the number of new/active cases.</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Nursing Homes (as of July 20, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of July 20, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of July 26, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of July 26, 2020)</t>
   </si>
 </sst>
 </file>
@@ -525,25 +525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.046875" style="2"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="10.84765625" customWidth="1"/>
     <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="132" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -560,191 +558,187 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="D3" s="8">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C4" s="8">
-        <v>2417</v>
+        <v>2959</v>
       </c>
       <c r="D4" s="8">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="E4" s="8">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C5" s="8">
-        <v>982</v>
+        <v>1172</v>
       </c>
       <c r="D5" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E5" s="8">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C6" s="8">
-        <v>3027</v>
+        <v>3741</v>
       </c>
       <c r="D6" s="8">
-        <v>309</v>
+        <v>437</v>
       </c>
       <c r="E6" s="8">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C7" s="8">
-        <v>1149</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8">
-        <v>1552</v>
+        <v>1919</v>
       </c>
       <c r="D8" s="8">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="E8" s="8">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8">
-        <v>746</v>
+        <v>1039</v>
       </c>
       <c r="D9" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E9" s="8">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="8">
-        <v>933</v>
+        <v>1719</v>
       </c>
       <c r="D10" s="8">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="E10" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM(B3:B10)</f>
-        <v>878</v>
+        <v>931</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>11303</v>
+        <v>14298</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>1422</v>
+        <v>1869</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -761,25 +755,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.046875" style="2"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="151.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -796,15 +788,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -813,109 +805,109 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D4" s="8">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
       </c>
       <c r="E5" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C6" s="8">
-        <v>493</v>
+        <v>595</v>
       </c>
       <c r="D6" s="8">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E6" s="8">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D7" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D8" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -923,62 +915,60 @@
         <v>11</v>
       </c>
       <c r="C10" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM(B3:B10)</f>
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(C3:C10)</f>
-        <v>1416</v>
+        <v>1673</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D3:D10)</f>
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E3:E10)</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
